--- a/Examples/somaticGermline_TCRBOA6/TumorSuppressor-OncogeneTable.xlsx
+++ b/Examples/somaticGermline_TCRBOA6/TumorSuppressor-OncogeneTable.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">gnomAD_exome_NFE</t>
   </si>
   <si>
-    <t xml:space="preserve">CADD13_PHRED</t>
+    <t xml:space="preserve">CADD_phred</t>
   </si>
   <si>
     <t xml:space="preserve">condel.label</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">CLINSIG.SnpEff</t>
   </si>
   <si>
-    <t xml:space="preserve">cosmic84_coding</t>
+    <t xml:space="preserve">cosmic86_coding</t>
   </si>
   <si>
     <t xml:space="preserve">VHL</t>
@@ -74,13 +74,13 @@
     <t xml:space="preserve"> p.His125fs</t>
   </si>
   <si>
-    <t xml:space="preserve">51.49%</t>
+    <t xml:space="preserve">50.98%</t>
   </si>
   <si>
     <t xml:space="preserve">het</t>
   </si>
   <si>
-    <t xml:space="preserve">52|101</t>
+    <t xml:space="preserve">52|102</t>
   </si>
   <si>
     <t xml:space="preserve"/>
